--- a/Mifos Automation Excels/Client/4003-CREATECLIENT-PERSON.xlsx
+++ b/Mifos Automation Excels/Client/4003-CREATECLIENT-PERSON.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>office</t>
   </si>
@@ -473,7 +473,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -609,7 +609,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
@@ -620,7 +620,16 @@
     <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Mifos Automation Excels/Client/4003-CREATECLIENT-PERSON.xlsx
+++ b/Mifos Automation Excels/Client/4003-CREATECLIENT-PERSON.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>office</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Head Office</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
   </si>
 </sst>
 </file>
@@ -612,7 +615,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -626,7 +629,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Mifos Automation Excels/Client/4003-CREATECLIENT-PERSON.xlsx
+++ b/Mifos Automation Excels/Client/4003-CREATECLIENT-PERSON.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>office</t>
   </si>
@@ -66,12 +66,6 @@
     <t>Ext4003</t>
   </si>
   <si>
-    <t>submitclient</t>
-  </si>
-  <si>
-    <t>submit</t>
-  </si>
-  <si>
     <t>InvalidNumber</t>
   </si>
   <si>
@@ -84,7 +78,10 @@
     <t>Head Office</t>
   </si>
   <si>
-    <t xml:space="preserve">    </t>
+    <t xml:space="preserve">                          Must be numeric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                      </t>
   </si>
 </sst>
 </file>
@@ -148,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -169,9 +166,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -491,7 +485,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -511,7 +505,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -595,14 +589,6 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>17</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -612,24 +598,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -643,17 +633,17 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Mifos Automation Excels/Client/4003-CREATECLIENT-PERSON.xlsx
+++ b/Mifos Automation Excels/Client/4003-CREATECLIENT-PERSON.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>office</t>
   </si>
@@ -76,12 +76,6 @@
   </si>
   <si>
     <t>Head Office</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                          Must be numeric </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                      </t>
   </si>
 </sst>
 </file>
@@ -598,10 +592,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -610,16 +604,9 @@
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -632,9 +619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
